--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">Conception base :</t>
   </si>
@@ -61,13 +61,19 @@
     <t xml:space="preserve">&gt; fonction verifLoginAdmin </t>
   </si>
   <si>
+    <t xml:space="preserve">_ si rep = 1 =&gt; fetch_assoc la personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_ si rep = 0 =&gt; créer variable erreur </t>
+  </si>
+  <si>
     <t xml:space="preserve">Intégration </t>
   </si>
   <si>
     <t xml:space="preserve">&gt; si true =&gt; redirection accueil</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; sinon =&gt; redirection logAdmin.php avec alert </t>
+    <t xml:space="preserve">&gt; sinon =&gt; alert message retour</t>
   </si>
 </sst>
 </file>
@@ -151,12 +157,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,10 +187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -192,7 +202,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -213,38 +223,38 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -254,33 +264,44 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -190,7 +190,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">Conception base :</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">Conception base (2h) :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
   </si>
   <si>
     <t xml:space="preserve">cf looping</t>
@@ -31,7 +34,7 @@
     <t xml:space="preserve">Login Admin</t>
   </si>
   <si>
-    <t xml:space="preserve">logAdmin.php</t>
+    <t xml:space="preserve">logAdmin.php (2h)</t>
   </si>
   <si>
     <t xml:space="preserve">Affichage </t>
@@ -190,7 +193,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -201,9 +204,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -211,12 +216,12 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -224,84 +229,107 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -31,10 +31,10 @@
     <t xml:space="preserve">cf looping</t>
   </si>
   <si>
-    <t xml:space="preserve">Login Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logAdmin.php (2h)</t>
+    <t xml:space="preserve">Login Admin (2h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logAdmin.php </t>
   </si>
   <si>
     <t xml:space="preserve">Affichage </t>
@@ -77,6 +77,30 @@
   </si>
   <si>
     <t xml:space="preserve">&gt; sinon =&gt; alert message retour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accueil Admin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">accueilAdmin.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; accueil avec nav bar : variété - parcelles – cueilleurs – catDépenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; css affichage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction généralisé insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction généralisé selectAll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; rediriger vers les bonnes pages de crud </t>
   </si>
 </sst>
 </file>
@@ -160,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,6 +194,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,10 +218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -220,116 +248,174 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="C22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="C23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -82,10 +82,10 @@
     <t xml:space="preserve">Accueil Admin </t>
   </si>
   <si>
-    <t xml:space="preserve">accueilAdmin.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; accueil avec nav bar : variété - parcelles – cueilleurs – catDépenses</t>
+    <t xml:space="preserve">(ok) accueilAdmin.html (1h30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; accueil avec nav bar : variété - parcelles – cueilleurs – catDépenses – salKilo</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; css affichage </t>
@@ -97,10 +97,31 @@
     <t xml:space="preserve">&gt; fonction généralisé selectAll </t>
   </si>
   <si>
-    <t xml:space="preserve">.</t>
+    <t xml:space="preserve">&gt; modele_accueil.Admin.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; folder : type Gestion ; page : insert ou list</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; rediriger vers les bonnes pages de crud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type Gestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; formulaire de chq entité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; getListeVariete by Parcelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction js : displayInTable (tabObject) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; traitement AJAX pour chaque insertion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; traitement AJAX pour list entité</t>
   </si>
 </sst>
 </file>
@@ -218,10 +239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -408,14 +429,64 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="0" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -31,10 +31,10 @@
     <t xml:space="preserve">cf looping</t>
   </si>
   <si>
-    <t xml:space="preserve">Login Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logAdmin.php (2h)</t>
+    <t xml:space="preserve">Login Admin (2h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logAdmin.php </t>
   </si>
   <si>
     <t xml:space="preserve">Affichage </t>
@@ -77,6 +77,51 @@
   </si>
   <si>
     <t xml:space="preserve">&gt; sinon =&gt; alert message retour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accueil Admin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ok) accueilAdmin.html (1h30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; accueil avec nav bar : variété - parcelles – cueilleurs – catDépenses – salKilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; css affichage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction généralisé insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction généralisé selectAll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; modele_accueil.Admin.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; folder : type Gestion ; page : insert ou list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; rediriger vers les bonnes pages de crud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type Gestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; formulaire de chq entité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; getListeVariete by Parcelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction js : displayInTable (tabObject) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; traitement AJAX pour chaque insertion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; traitement AJAX pour list entité</t>
   </si>
 </sst>
 </file>
@@ -160,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,6 +215,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,10 +239,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -220,116 +269,224 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="2" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="2" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="C22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="C23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="2" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -106,13 +106,13 @@
     <t xml:space="preserve">&gt; rediriger vers les bonnes pages de crud </t>
   </si>
   <si>
-    <t xml:space="preserve">Type Gestion</t>
+    <t xml:space="preserve">Type Gestion Généralisé (ok) (3h)</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; formulaire de chq entité</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; getListeVariete by Parcelle </t>
+    <t xml:space="preserve">&gt; vue ListeParcelle avec variete</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; fonction js : displayInTable (tabObject) </t>
@@ -122,6 +122,33 @@
   </si>
   <si>
     <t xml:space="preserve">&gt; traitement AJAX pour list entité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choix Connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choixConnect.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; lien : Admin ou Utilisateur Lambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégration : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; rediriger les liens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logUser.php </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; envoyer données formulaire vers traitLogUser.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traitLogUser.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction verifLogUtilisateur</t>
   </si>
 </sst>
 </file>
@@ -205,7 +232,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,6 +246,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,10 +270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C85" activeCellId="4" sqref="C67:C68 C74 C80:C82 C84 C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -399,12 +430,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D31" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D32" s="0" t="s">
         <v>22</v>
       </c>
@@ -414,12 +451,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D35" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D36" s="0" t="s">
         <v>24</v>
       </c>
@@ -430,16 +473,25 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D39" s="0" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D40" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D41" s="0" t="s">
         <v>27</v>
       </c>
@@ -454,7 +506,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D45" s="0" t="s">
         <v>29</v>
       </c>
@@ -464,12 +519,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D48" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D49" s="0" t="s">
         <v>31</v>
       </c>
@@ -479,14 +540,143 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D52" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D53" s="0" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Choix Connection</t>
   </si>
   <si>
-    <t xml:space="preserve">choixConnect.html</t>
+    <t xml:space="preserve">choixConnect.html (20mn)</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; lien : Admin ou Utilisateur Lambda</t>
@@ -139,13 +139,13 @@
     <t xml:space="preserve">&gt; rediriger les liens </t>
   </si>
   <si>
-    <t xml:space="preserve">logUser.php </t>
+    <t xml:space="preserve">logUser.php (1h)</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; envoyer données formulaire vers traitLogUser.php</t>
   </si>
   <si>
-    <t xml:space="preserve">traitLogUser.php</t>
+    <t xml:space="preserve">traitLogUser.php (30mn)</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; fonction verifLogUtilisateur</t>
@@ -232,7 +232,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,10 +246,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -272,8 +268,8 @@
   </sheetPr>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C85" activeCellId="4" sqref="C67:C68 C74 C80:C82 C84 C85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J71" activeCellId="0" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -562,7 +558,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -572,6 +568,9 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D59" s="0" t="s">
         <v>36</v>
       </c>
@@ -582,6 +581,9 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D62" s="0" t="s">
         <v>38</v>
       </c>
@@ -600,11 +602,17 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D68" s="2" t="s">
         <v>7</v>
       </c>
@@ -627,6 +635,9 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D74" s="2" t="s">
         <v>40</v>
       </c>
@@ -655,11 +666,17 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="E81" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="E82" s="0" t="s">
         <v>15</v>
       </c>
@@ -670,11 +687,17 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D84" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D85" s="2" t="s">
         <v>18</v>
       </c>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Accueil Admin </t>
   </si>
   <si>
-    <t xml:space="preserve">(ok) accueilAdmin.html (1h30)</t>
+    <t xml:space="preserve">(ok) model_accueilAdmin.html (1h30)</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; accueil avec nav bar : variété - parcelles – cueilleurs – catDépenses – salKilo</t>
@@ -149,6 +149,33 @@
   </si>
   <si>
     <t xml:space="preserve">&gt; fonction verifLogUtilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accueil User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modele_accueilUser.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; barre de navigation (Gestion) : Cueillettes – Dépenses – Resultat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; rediriger vers les bonnes pages (folder – page)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertionCueillette.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; formulaire de saisie : dateCuillette – select Cueilleur – select Parcelle – poids Cueilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Utilisation fonction selectAll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Utilisation fonction insert généralisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; </t>
   </si>
 </sst>
 </file>
@@ -266,10 +293,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J71" activeCellId="0" sqref="J71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D102" activeCellId="0" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,6 +727,81 @@
       </c>
       <c r="D85" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D93" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D97" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D100" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Accueil User</t>
   </si>
   <si>
-    <t xml:space="preserve">modele_accueilUser.php</t>
+    <t xml:space="preserve">modele_accueilUser.php (ok) (1h)</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; barre de navigation (Gestion) : Cueillettes – Dépenses – Resultat</t>
@@ -169,10 +169,31 @@
     <t xml:space="preserve">&gt; formulaire de saisie : dateCuillette – select Cueilleur – select Parcelle – poids Cueilli</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; Utilisation fonction selectAll </t>
+    <t xml:space="preserve">&gt; Utilisation fonction selectAll généralisé (ls Cueilleur – ls </t>
   </si>
   <si>
     <t xml:space="preserve">&gt; Utilisation fonction insert généralisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction php (vérification cueillette)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* verifValiditePoids (idParcelle, dateDebutPlantation, dateCueillete, poidsCueillette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* poidsrestantparcelle (idParcelle, dateDebutPlantation, dateCueillete, poidsCueillette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* sommePoidsAncienneCueillette (idParcelle, dateCueillette)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* rendementParcelleParMois (idParcelle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* getNbPieds (idParcelle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* nbMois (dateMin,dateMax)</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; </t>
@@ -293,10 +314,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D102" activeCellId="0" sqref="D102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,6 +766,9 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D90" s="0" t="s">
         <v>45</v>
       </c>
@@ -755,6 +779,9 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C93" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D93" s="0" t="s">
         <v>46</v>
       </c>
@@ -794,14 +821,44 @@
         <v>51</v>
       </c>
     </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="0" t="s">
+      <c r="E104" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E106" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E108" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D105" s="0" t="s">
-        <v>51</v>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D111" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="83">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -163,7 +163,10 @@
     <t xml:space="preserve">&gt; rediriger vers les bonnes pages (folder – page)</t>
   </si>
   <si>
-    <t xml:space="preserve">insertionCueillette.php</t>
+    <t xml:space="preserve">insertionCueillette.html (2h30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok </t>
   </si>
   <si>
     <t xml:space="preserve">&gt; formulaire de saisie : dateCuillette – select Cueilleur – select Parcelle – poids Cueilli</t>
@@ -196,7 +199,76 @@
     <t xml:space="preserve">* nbMois (dateMin,dateMax)</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; </t>
+    <t xml:space="preserve">&gt; récupérer data du formulaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; vérification poidsRestantParcelle vis-à-vis poids cueilli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* si cueilli&gt;restant : message d’erreur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* sinon : insert la cueillette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertionDepense.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; formulaire Depense : dateDepense, idCatDepense, montant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Utilisation fonction généralisée insertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; traitement AJAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resultat.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; formulaire de choix de date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; bouton validation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; emplacement affichage Total Poids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Affichage Prix de revient par kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Affichage de la date actuelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; emplacement tableau Poids restant par parcelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction calculTotalPoidsCueillette (dateMin, dateMax)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Utilisation fonction poidsRestantParcelle(idParcelle,dateMin,dateMax)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction totalSalaire(dateMin,dateMax)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction totalDepenses(dateMin,dateMax)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction totalCharge (dateMin,dateMax)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction revientParKg(dateMin,dateMax)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; bouton de validation récupère toutes les données par xhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Insérer les valeurs nécessaires aux endroits nécessaires</t>
   </si>
 </sst>
 </file>
@@ -314,13 +386,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D141" activeCellId="0" sqref="D141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -372,13 +444,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -402,13 +472,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -459,6 +527,7 @@
         <v>18</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>19</v>
@@ -490,6 +559,7 @@
         <v>22</v>
       </c>
     </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
         <v>8</v>
@@ -511,6 +581,7 @@
         <v>24</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
         <v>16</v>
@@ -540,6 +611,7 @@
         <v>27</v>
       </c>
     </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
         <v>28</v>
@@ -558,6 +630,7 @@
         <v>29</v>
       </c>
     </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
         <v>8</v>
@@ -579,6 +652,7 @@
         <v>31</v>
       </c>
     </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
         <v>16</v>
@@ -600,6 +674,7 @@
         <v>33</v>
       </c>
     </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
         <v>34</v>
@@ -610,6 +685,7 @@
         <v>35</v>
       </c>
     </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
         <v>5</v>
@@ -623,6 +699,7 @@
         <v>36</v>
       </c>
     </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
         <v>37</v>
@@ -636,6 +713,7 @@
         <v>38</v>
       </c>
     </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
         <v>39</v>
@@ -665,13 +743,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D72" s="2" t="s">
         <v>9</v>
@@ -695,13 +771,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="2" t="s">
         <v>8</v>
@@ -750,6 +824,7 @@
         <v>18</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
         <v>43</v>
@@ -773,6 +848,7 @@
         <v>45</v>
       </c>
     </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="0" t="s">
         <v>16</v>
@@ -786,6 +862,7 @@
         <v>46</v>
       </c>
     </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
         <v>47</v>
@@ -797,68 +874,297 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="0" t="s">
+        <v>48</v>
+      </c>
       <c r="D97" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D100" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D101" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D102" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="E103" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="E104" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="E105" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="E106" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="E107" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="E108" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C110" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="D111" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D118" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D124" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D125" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D144" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D145" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -223,7 +223,7 @@
     <t xml:space="preserve">&gt; traitement AJAX</t>
   </si>
   <si>
-    <t xml:space="preserve">resultat.html</t>
+    <t xml:space="preserve">resultat.html (4h)</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; formulaire de choix de date </t>
@@ -253,7 +253,7 @@
     <t xml:space="preserve">&gt; fonction totalSalaire(dateMin,dateMax)</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; fonction totalDepenses(dateMin,dateMax)</t>
+    <t xml:space="preserve">&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">&gt; fonction totalCharge (dateMin,dateMax)</t>
@@ -269,6 +269,39 @@
   </si>
   <si>
     <t xml:space="preserve">&gt; Insérer les valeurs nécessaires aux endroits nécessaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backoffice (page admin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajout table : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Saison : id – dateMvt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The_MoisSaison : id – idSaison – numMois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">configSaison.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; ajout lien bar de navigation : saison </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; formulaire de config Saison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; list CheckBox mois (clé, valeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; dateModification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; appel successif fonction généralisée insert The_Saison </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; rediriger vers le formulaire de configSaison</t>
   </si>
 </sst>
 </file>
@@ -386,10 +419,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D141" activeCellId="0" sqref="D141"/>
+      <selection pane="topLeft" activeCell="D163" activeCellId="0" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -429,7 +462,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -437,7 +470,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -460,7 +493,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -491,18 +524,18 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -512,7 +545,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -520,7 +553,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -529,187 +562,187 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="0" t="s">
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="s">
+      <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="0" t="s">
+      <c r="C40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="0" t="s">
+      <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="s">
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="0" t="s">
+      <c r="C48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="0" t="s">
+      <c r="C49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="s">
+      <c r="C52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="s">
+      <c r="C53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="0" t="s">
+      <c r="C59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="0" t="s">
+      <c r="C62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -728,7 +761,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -736,7 +769,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -759,7 +792,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -788,18 +821,18 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="0" t="s">
+      <c r="C81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="0" t="s">
+      <c r="C82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -809,7 +842,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -817,7 +850,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -826,345 +859,426 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="0" t="s">
+      <c r="C90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="0" t="s">
+      <c r="C93" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="0" t="s">
+      <c r="C100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="0" t="s">
+      <c r="C101" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="0" t="s">
+      <c r="C102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E103" s="0" t="s">
+      <c r="C103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E104" s="0" t="s">
+      <c r="C104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E105" s="0" t="s">
+      <c r="C105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E106" s="0" t="s">
+      <c r="C106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E107" s="0" t="s">
+      <c r="C107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E108" s="0" t="s">
+      <c r="C108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="0" t="s">
+      <c r="C111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="0" t="s">
+      <c r="C112" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C113" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E113" s="0" t="s">
+      <c r="C113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E114" s="0" t="s">
+      <c r="C114" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D129" s="0" t="s">
+      <c r="C129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" s="0" t="s">
+      <c r="C130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" s="0" t="s">
+      <c r="C131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132" s="0" t="s">
+      <c r="C132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D133" s="0" t="s">
+      <c r="C133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="0" t="s">
+      <c r="C134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D136" s="0" t="s">
+      <c r="C136" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" s="0" t="s">
+      <c r="C137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D138" s="0" t="s">
+      <c r="C138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" s="0" t="s">
+      <c r="C139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D140" s="0" t="s">
+      <c r="C140" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D141" s="0" t="s">
+      <c r="C141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D144" s="0" t="s">
+      <c r="C144" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D145" s="0" t="s">
+      <c r="C145" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3"/>
+      <c r="B149" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3"/>
+      <c r="C150" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D155" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D156" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D160" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D163" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -283,7 +283,7 @@
     <t xml:space="preserve">The_MoisSaison : id – idSaison – numMois </t>
   </si>
   <si>
-    <t xml:space="preserve">configSaison.html</t>
+    <t xml:space="preserve">configSaison.html (2h)</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; ajout lien bar de navigation : saison </t>
@@ -385,7 +385,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,10 +395,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,8 +417,8 @@
   </sheetPr>
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D163" activeCellId="0" sqref="D163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B154" activeCellId="0" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1191,7 +1187,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -1199,7 +1195,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -1207,77 +1203,101 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3"/>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3"/>
-      <c r="B149" s="0" t="s">
+      <c r="A149" s="1"/>
+      <c r="B149" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3"/>
-      <c r="C150" s="0" t="s">
+      <c r="A150" s="1"/>
+      <c r="B150" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="0" t="s">
+      <c r="B151" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D155" s="0" t="s">
+      <c r="B155" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D156" s="0" t="s">
+      <c r="B156" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="0" t="s">
+      <c r="B157" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="0" t="s">
+      <c r="B158" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D160" s="0" t="s">
+      <c r="B160" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D163" s="0" t="s">
+      <c r="B163" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>93</v>
       </c>
     </row>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -417,8 +417,8 @@
   </sheetPr>
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B154" activeCellId="0" sqref="B154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A165" activeCellId="0" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/todo/task.xlsx
+++ b/todo/task.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="103">
   <si>
     <t xml:space="preserve">Conception base (2h) :</t>
   </si>
@@ -302,6 +302,33 @@
   </si>
   <si>
     <t xml:space="preserve">&gt; rediriger vers le formulaire de configSaison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FrontOffice (utilisateur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listPayement.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; formulaire avec datemin et datemax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; balise table vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; fonction php getListPayement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; prendre les valeurs des datemin et datemax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; traitement AJAX du formulaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; getListPayement à encoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; displayer dans la table </t>
   </si>
 </sst>
 </file>
@@ -385,7 +412,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,6 +422,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -415,10 +446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A165" activeCellId="0" sqref="A165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D177" activeCellId="0" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1299,6 +1330,66 @@
       </c>
       <c r="D163" s="2" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D168" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D169" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C170" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D171" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D174" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D175" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D176" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D177" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
